--- a/results/outputs/urt_sim_summ_mixed.xlsx
+++ b/results/outputs/urt_sim_summ_mixed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).30, 0.05 (N = 100)</t>
   </si>
@@ -24,6 +24,9 @@
     <t xml:space="preserve">LinDA.30, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.30, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).30, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -33,6 +36,9 @@
     <t xml:space="preserve">LinDA.30, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.30, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).30, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -42,6 +48,9 @@
     <t xml:space="preserve">LinDA.30, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.30, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).30, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -51,6 +60,9 @@
     <t xml:space="preserve">LinDA.30, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.30, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).30, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
     <t xml:space="preserve">LinDA.30, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.30, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).60, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -69,6 +84,9 @@
     <t xml:space="preserve">LinDA.60, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.60, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).60, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -78,6 +96,9 @@
     <t xml:space="preserve">LinDA.60, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.60, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).60, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -87,6 +108,9 @@
     <t xml:space="preserve">LinDA.60, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.60, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).60, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -96,6 +120,9 @@
     <t xml:space="preserve">LinDA.60, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.60, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).60, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -105,6 +132,9 @@
     <t xml:space="preserve">LinDA.60, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.60, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).90, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -114,6 +144,9 @@
     <t xml:space="preserve">LinDA.90, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.90, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).90, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -123,6 +156,9 @@
     <t xml:space="preserve">LinDA.90, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.90, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).90, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -132,6 +168,9 @@
     <t xml:space="preserve">LinDA.90, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.90, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).90, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -141,6 +180,9 @@
     <t xml:space="preserve">LinDA.90, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.90, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).90, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -150,6 +192,9 @@
     <t xml:space="preserve">LinDA.90, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.90, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).150, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -159,6 +204,9 @@
     <t xml:space="preserve">LinDA.150, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.150, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).150, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -168,6 +216,9 @@
     <t xml:space="preserve">LinDA.150, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.150, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).150, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -177,6 +228,9 @@
     <t xml:space="preserve">LinDA.150, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.150, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).150, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -186,6 +240,9 @@
     <t xml:space="preserve">LinDA.150, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.150, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).150, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -195,6 +252,9 @@
     <t xml:space="preserve">LinDA.150, 0.9 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.150, 0.9 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).300, 0.05 (N = 100)</t>
   </si>
   <si>
@@ -204,6 +264,9 @@
     <t xml:space="preserve">LinDA.300, 0.05 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.300, 0.05 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).300, 0.1 (N = 100)</t>
   </si>
   <si>
@@ -213,6 +276,9 @@
     <t xml:space="preserve">LinDA.300, 0.1 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.300, 0.1 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).300, 0.2 (N = 100)</t>
   </si>
   <si>
@@ -222,6 +288,9 @@
     <t xml:space="preserve">LinDA.300, 0.2 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.300, 0.2 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).300, 0.5 (N = 100)</t>
   </si>
   <si>
@@ -231,6 +300,9 @@
     <t xml:space="preserve">LinDA.300, 0.5 (N = 100)</t>
   </si>
   <si>
+    <t xml:space="preserve">LMM-CLR.300, 0.5 (N = 100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCOM-BC2 (No Filter).300, 0.9 (N = 100)</t>
   </si>
   <si>
@@ -238,6 +310,9 @@
   </si>
   <si>
     <t xml:space="preserve">LinDA.300, 0.9 (N = 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMM-CLR.300, 0.9 (N = 100)</t>
   </si>
 </sst>
 </file>
@@ -795,6 +870,81 @@
       <c r="BW1" t="s">
         <v>74</v>
       </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -807,220 +957,295 @@
         <v>0.93</v>
       </c>
       <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.82</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.99</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.81</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.9</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.99</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>0.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>0.9</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.96</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>0.77</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>0.67</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.81</v>
       </c>
-      <c r="R2" t="n">
+      <c r="W2" t="n">
         <v>0.98</v>
       </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.87</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AA2" t="n">
         <v>0.97</v>
       </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AB2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.86</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AE2" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AF2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.86</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AI2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AJ2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AK2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AL2" t="n">
         <v>0.84</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AM2" t="n">
         <v>0.69</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AN2" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.83</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.98</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.99</v>
       </c>
       <c r="AR2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
         <v>0.89</v>
       </c>
-      <c r="AS2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AY2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="BC2" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="BE2" t="n">
         <v>0.99</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="BG2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
         <v>0.92</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CA2" t="n">
         <v>0.74</v>
       </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
+      <c r="CB2" t="n">
         <v>0.88</v>
       </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
         <v>0.95</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="CI2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
+      <c r="CJ2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
         <v>0.94</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CM2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
+      <c r="CN2" t="n">
         <v>0.93</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CQ2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
+      <c r="CR2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0.94</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CU2" t="n">
         <v>0.78</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -1034,175 +1259,175 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
         <v>0.07</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="H3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.07</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.06</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.07</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>0.06</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.08</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.07</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.07</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AA3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD3" t="n">
         <v>0.06</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AE3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AI3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.08</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AM3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AQ3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS3" t="n">
         <v>0</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AY3" t="n">
         <v>0.01</v>
       </c>
       <c r="AZ3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA3" t="n">
         <v>0</v>
       </c>
-      <c r="BA3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="BB3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1214,39 +1439,114 @@
         <v>0.01</v>
       </c>
       <c r="BL3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BM3" t="n">
         <v>0</v>
       </c>
-      <c r="BM3" t="n">
-        <v>0.03</v>
-      </c>
       <c r="BN3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="BO3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>0</v>
       </c>
-      <c r="BP3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.01</v>
-      </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="BW3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CV3" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1261,220 +1561,295 @@
         <v>0.36</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.15</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.31</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.11</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.18</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="n">
         <v>0.02</v>
       </c>
       <c r="O4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.11</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.14</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.65</v>
       </c>
-      <c r="S4" t="n">
+      <c r="X4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.13</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="Z4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.58</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AB4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.09</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.35</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AF4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI4" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AJ4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AN4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0.26</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AP4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>0.75</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AR4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AS4" t="n">
         <v>0.22</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AT4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AU4" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AV4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AW4" t="n">
         <v>0.15</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AX4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AY4" t="n">
         <v>0.46</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AZ4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BA4" t="n">
         <v>0.07</v>
       </c>
-      <c r="AO4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AP4" t="n">
+      <c r="BB4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.12</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="BD4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BG4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BH4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BI4" t="n">
         <v>0.36</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BJ4" t="n">
         <v>0.06</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="BK4" t="n">
         <v>0.86</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BL4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.3</v>
       </c>
-      <c r="AX4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="BN4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BO4" t="n">
         <v>0.8</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BP4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>0.2</v>
       </c>
-      <c r="BA4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BR4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS4" t="n">
         <v>0.59</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BT4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BU4" t="n">
         <v>0.09</v>
       </c>
-      <c r="BD4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BE4" t="n">
+      <c r="BV4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BW4" t="n">
         <v>0.19</v>
       </c>
-      <c r="BF4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BH4" t="n">
+      <c r="BX4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CA4" t="n">
         <v>0.11</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="CB4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CC4" t="n">
         <v>0.55</v>
       </c>
-      <c r="BJ4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="BK4" t="n">
+      <c r="CD4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CE4" t="n">
         <v>0.89</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="CF4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CG4" t="n">
         <v>0.48</v>
       </c>
-      <c r="BM4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="BN4" t="n">
+      <c r="CH4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CI4" t="n">
         <v>0.84</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CJ4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CK4" t="n">
         <v>0.33</v>
       </c>
-      <c r="BP4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BQ4" t="n">
+      <c r="CL4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CM4" t="n">
         <v>0.67</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="CN4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CO4" t="n">
         <v>0.14</v>
       </c>
-      <c r="BS4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BT4" t="n">
+      <c r="CP4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CQ4" t="n">
         <v>0.3</v>
       </c>
-      <c r="BU4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BW4" t="n">
+      <c r="CR4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CU4" t="n">
         <v>0.11</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="5">
@@ -1488,220 +1863,295 @@
         <v>0.33</v>
       </c>
       <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.21</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.17</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.29</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.14</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.13</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.06</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.03</v>
-      </c>
       <c r="N5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="V5" t="n">
         <v>0.13</v>
       </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
         <v>0.27</v>
       </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.17</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Z5" t="n">
         <v>0.11</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AA5" t="n">
         <v>0.25</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AB5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.11</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AD5" t="n">
         <v>0.08</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AE5" t="n">
         <v>0.21</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AJ5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AN5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.26</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AP5" t="n">
         <v>0.16</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AQ5" t="n">
         <v>0.19</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AR5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.22</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AT5" t="n">
         <v>0.12</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AU5" t="n">
         <v>0.19</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AV5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AW5" t="n">
         <v>0.15</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AX5" t="n">
         <v>0.09</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AY5" t="n">
         <v>0.17</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AZ5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BA5" t="n">
         <v>0.06</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="BB5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.08</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="BD5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BG5" t="n">
         <v>0</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="BH5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI5" t="n">
         <v>0.28</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BJ5" t="n">
         <v>0.18</v>
       </c>
-      <c r="AV5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AW5" t="n">
+      <c r="BK5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BM5" t="n">
         <v>0.25</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BN5" t="n">
         <v>0.14</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BO5" t="n">
         <v>0.06</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BP5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>0.17</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BR5" t="n">
         <v>0.13</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BS5" t="n">
         <v>0.09</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BT5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BU5" t="n">
         <v>0.07</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BV5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BW5" t="n">
         <v>0.08</v>
       </c>
-      <c r="BF5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BI5" t="n">
+      <c r="BX5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CC5" t="n">
         <v>0.26</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="CD5" t="n">
         <v>0.16</v>
       </c>
-      <c r="BK5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BL5" t="n">
+      <c r="CE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CG5" t="n">
         <v>0.24</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="CH5" t="n">
         <v>0.14</v>
       </c>
-      <c r="BN5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BO5" t="n">
+      <c r="CI5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CK5" t="n">
         <v>0.17</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="CL5" t="n">
         <v>0.12</v>
       </c>
-      <c r="BQ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BR5" t="n">
+      <c r="CM5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CO5" t="n">
         <v>0.08</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CP5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BT5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BW5" t="n">
+      <c r="CQ5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CU5" t="n">
         <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1944,6 +2394,81 @@
       <c r="BW1" t="s">
         <v>74</v>
       </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1956,220 +2481,295 @@
         <v>0.92</v>
       </c>
       <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.89</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.99</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.8</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.89</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.99</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>0.78</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>0.89</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.96</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>0.76</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>0.66</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.8</v>
       </c>
-      <c r="R2" t="n">
+      <c r="W2" t="n">
         <v>0.97</v>
       </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.87</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.85</v>
       </c>
       <c r="AA2" t="n">
         <v>0.96</v>
       </c>
       <c r="AB2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.83</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AM2" t="n">
         <v>0.69</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AN2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.83</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.98</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.99</v>
       </c>
       <c r="AR2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
         <v>0.89</v>
       </c>
-      <c r="AS2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AY2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="BC2" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="BE2" t="n">
         <v>0.99</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="BG2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
         <v>0.93</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BO2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CA2" t="n">
         <v>0.73</v>
       </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
+      <c r="CB2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
         <v>0.89</v>
       </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
         <v>0.95</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="CI2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
+      <c r="CJ2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
         <v>0.95</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CM2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
+      <c r="CN2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" t="n">
         <v>0.94</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CQ2" t="n">
         <v>0.99</v>
       </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
+      <c r="CR2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0.95</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CU2" t="n">
         <v>0.77</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -2183,220 +2783,295 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.08</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.06</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.01</v>
-      </c>
       <c r="H3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.07</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.06</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.07</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>0.06</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.08</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.08</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.07</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AA3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD3" t="n">
         <v>0.06</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AE3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AH3" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AI3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.08</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AM3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO3" t="n">
         <v>0</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AP3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS3" t="n">
         <v>0</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AZ3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BA3" t="n">
         <v>0</v>
       </c>
-      <c r="BA3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="BB3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="BK3" t="n">
         <v>0.01</v>
       </c>
       <c r="BL3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BM3" t="n">
         <v>0</v>
       </c>
-      <c r="BM3" t="n">
-        <v>0.03</v>
-      </c>
       <c r="BN3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="BO3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>0</v>
       </c>
-      <c r="BP3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.01</v>
-      </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -2410,220 +3085,295 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.06</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.29</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.11</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.15</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="n">
         <v>0.02</v>
       </c>
       <c r="O4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.11</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.6</v>
       </c>
-      <c r="S4" t="n">
+      <c r="X4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.14</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="Z4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.54</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AB4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.33</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AF4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI4" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AJ4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AN4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0.23</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AP4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>0.76</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AR4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS4" t="n">
         <v>0.2</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AT4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AU4" t="n">
         <v>0.69</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AV4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AW4" t="n">
         <v>0.15</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AX4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AY4" t="n">
         <v>0.46</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AZ4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BA4" t="n">
         <v>0.07</v>
       </c>
-      <c r="AO4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AP4" t="n">
+      <c r="BB4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="BD4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BG4" t="n">
         <v>0.11</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BH4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI4" t="n">
         <v>0.29</v>
       </c>
-      <c r="AU4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AV4" t="n">
+      <c r="BJ4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK4" t="n">
         <v>0.85</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BL4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.26</v>
       </c>
-      <c r="AX4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="BN4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BO4" t="n">
         <v>0.78</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BP4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>0.18</v>
       </c>
-      <c r="BA4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BR4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BS4" t="n">
         <v>0.55</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BT4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="BU4" t="n">
         <v>0.08</v>
       </c>
-      <c r="BD4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BE4" t="n">
+      <c r="BV4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BW4" t="n">
         <v>0.17</v>
       </c>
-      <c r="BF4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BH4" t="n">
+      <c r="BX4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CA4" t="n">
         <v>0.11</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="CB4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CC4" t="n">
         <v>0.47</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="CD4" t="n">
         <v>0.08</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="CE4" t="n">
         <v>0.89</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="CF4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CG4" t="n">
         <v>0.41</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="CH4" t="n">
         <v>0.06</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="CI4" t="n">
         <v>0.84</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CJ4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="CK4" t="n">
         <v>0.29</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="CL4" t="n">
         <v>0.06</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="CM4" t="n">
         <v>0.65</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="CN4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="CO4" t="n">
         <v>0.13</v>
       </c>
-      <c r="BS4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BT4" t="n">
+      <c r="CP4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CQ4" t="n">
         <v>0.27</v>
       </c>
-      <c r="BU4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BW4" t="n">
+      <c r="CR4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CU4" t="n">
         <v>0.11</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -2637,220 +3387,295 @@
         <v>0.31</v>
       </c>
       <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.22</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.28</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.15</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.14</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.18</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.06</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.07</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.24</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="V5" t="n">
         <v>0.15</v>
       </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
         <v>0.28</v>
       </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.2</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Z5" t="n">
         <v>0.14</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AA5" t="n">
         <v>0.25</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AB5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.14</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AD5" t="n">
         <v>0.09</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AE5" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.07</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AJ5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.25</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AP5" t="n">
         <v>0.16</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AQ5" t="n">
         <v>0.19</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AR5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.22</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AT5" t="n">
         <v>0.14</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AU5" t="n">
         <v>0.19</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AV5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AW5" t="n">
         <v>0.16</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AX5" t="n">
         <v>0.11</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AY5" t="n">
         <v>0.17</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AZ5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BA5" t="n">
         <v>0.06</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="BB5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.08</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="BD5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BG5" t="n">
         <v>0</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="BH5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BI5" t="n">
         <v>0.26</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BJ5" t="n">
         <v>0.14</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="BK5" t="n">
         <v>0.06</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="BL5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BM5" t="n">
         <v>0.22</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BN5" t="n">
         <v>0.12</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BO5" t="n">
         <v>0.08</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BP5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>0.16</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BR5" t="n">
         <v>0.12</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BS5" t="n">
         <v>0.12</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BT5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BU5" t="n">
         <v>0.07</v>
       </c>
-      <c r="BD5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="BE5" t="n">
+      <c r="BV5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BW5" t="n">
         <v>0.07</v>
       </c>
-      <c r="BF5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BH5" t="n">
+      <c r="BX5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CA5" t="n">
         <v>0</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="CB5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CC5" t="n">
         <v>0.28</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="CD5" t="n">
         <v>0.2</v>
       </c>
-      <c r="BK5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BL5" t="n">
+      <c r="CE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CG5" t="n">
         <v>0.25</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="CH5" t="n">
         <v>0.15</v>
       </c>
-      <c r="BN5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BO5" t="n">
+      <c r="CI5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CK5" t="n">
         <v>0.18</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="CL5" t="n">
         <v>0.14</v>
       </c>
-      <c r="BQ5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="BR5" t="n">
+      <c r="CM5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="CO5" t="n">
         <v>0.08</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CP5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CQ5" t="n">
         <v>0.06</v>
       </c>
-      <c r="BU5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0.01</v>
+      <c r="CR5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
